--- a/Option BidAsk.xlsx
+++ b/Option BidAsk.xlsx
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -141,7 +141,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,14 +530,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="17.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="4"/>
     <col min="11" max="11" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9"/>
       <c r="E1" s="8">
         <v>10000</v>
       </c>

--- a/Option BidAsk.xlsx
+++ b/Option BidAsk.xlsx
@@ -123,12 +123,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,37 +450,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="8">
+      <c r="A1" s="5"/>
+      <c r="E1" s="9">
         <v>10000</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,37 +540,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="E1" s="8">
+      <c r="E1" s="9">
         <v>10000</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>

--- a/Option BidAsk.xlsx
+++ b/Option BidAsk.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
   </bookViews>
   <sheets>
-    <sheet name="NIFTY.CURRENT" sheetId="1" r:id="rId1"/>
+    <sheet name="NIFTY.CURRENT" sheetId="6" r:id="rId1"/>
     <sheet name="BANKNIFTY.CURRENT" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Date Time</t>
   </si>
@@ -125,23 +125,23 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,87 +436,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="8.88671875" style="9"/>
+    <col min="9" max="9" width="2" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="E1" s="9">
+    <row r="1" spans="1:8">
+      <c r="E1" s="1">
         <v>10000</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,88 +518,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="2.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="8.88671875" style="9"/>
+    <col min="9" max="9" width="2" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1" s="9">
+    <row r="1" spans="1:8">
+      <c r="E1" s="1">
         <v>10000</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:J1"/>
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
